--- a/data/trans_bre/CONS_COR-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_COR-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,12 +604,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -619,12 +619,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,27 +684,27 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,68</t>
+          <t>0,0; 1,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,55%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,72%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>702,54%</t>
         </is>
       </c>
     </row>
@@ -802,27 +802,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 0,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,26; 1,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,28; 3,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,27; 435,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,76; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-73,81%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-47,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-27,41%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,03; -1,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,04</t>
+          <t>-3,57; 1,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,77</t>
+          <t>-1,86; 1,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,57; -38,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,12; 84,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,33; 167,22</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>-7,92</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-3,95</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-78,16%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-33,15%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-44,75%</t>
+          <t>-50,61%</t>
         </is>
       </c>
     </row>
@@ -962,39 +962,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,05</t>
+          <t>-10,82; -5,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,56</t>
+          <t>-5,97; 0,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,33</t>
+          <t>-7,49; -0,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,33; -63,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,27; 8,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,86; -4,11</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>-8,8</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-9,95</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-6,21</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>430,82%</t>
+          <t>-51,24%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-6,52%</t>
+          <t>-71,73%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-24,24%</t>
+          <t>-41,42%</t>
         </is>
       </c>
     </row>
@@ -1042,39 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 2,38</t>
+          <t>-12,74; -5,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 0,82</t>
+          <t>-16,92; -5,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 0,73</t>
+          <t>-10,46; -1,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,92; -34,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-85,09; —</t>
+          <t>-92,16; -42,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-85,36; 171,25</t>
+          <t>-58,7; -14,63</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>-6,96</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,21</t>
+          <t>-2,83</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-33,18%</t>
+          <t>-24,33%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-59,35%</t>
+          <t>-11,67%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-67,07%</t>
+          <t>-0,58%</t>
         </is>
       </c>
     </row>
@@ -1122,39 +1122,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 0,94</t>
+          <t>-12,49; -2,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,93; -0,73</t>
+          <t>-10,37; 3,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,44; -1,02</t>
+          <t>-5,3; 5,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-83,7; 105,29</t>
+          <t>-38,57; -7,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-79,91; -27,33</t>
+          <t>-35,29; 17,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-84,04; -35,08</t>
+          <t>-18,87; 23,38</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-4,29</t>
+          <t>-3,39</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-7,93</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-52,24%</t>
+          <t>-36,85%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-40,81%</t>
+          <t>-17,1%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-75,08%</t>
+          <t>-7,07%</t>
         </is>
       </c>
     </row>
@@ -1202,292 +1202,49 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,92; -0,74</t>
+          <t>-4,67; -2,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,52; -0,86</t>
+          <t>-2,34; 1,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-10,77; -5,4</t>
+          <t>-1,63; 0,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-75,62; -11,29</t>
+          <t>-46,44; -24,54</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-60,38; -12,65</t>
+          <t>-39,87; 31,34</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-84,04; -60,44</t>
+          <t>-24,65; 11,02</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-5,93</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-6,44</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-9,4</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-39,39%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-49,4%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-55,98%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-9,82; -1,85</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-10,94; -2,84</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-12,79; -6,02</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-57,9; -13,87</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-73,85; -25,1</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-66,48; -38,99</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-0,68</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>0,8</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-6,5</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-2,57%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>3,4%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-21,98%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-6,22; 4,62</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-3,95; 5,49</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-11,12; -2,08</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-20,92; 19,59</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-14,64; 26,11</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-34,19; -7,13</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-1,52</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-0,64</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-2,81</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-17,45%</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-10,83%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-34,38%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-3,04; -0,23</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-1,7; 0,26</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-3,72; -1,75</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-31,29; -2,31</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-26,18; 4,68</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-43,05; -22,71</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="11">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/CONS_COR-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_COR-Edad-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,3</t>
+          <t>0,0; 0,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,24</t>
+          <t>0,0; 8,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,21</t>
+          <t>0,0; 1,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,42</t>
+          <t>0,0; 3,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-14,55%</t>
+          <t>-6,26%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 0,81</t>
+          <t>-1,24; 1,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 1,02</t>
+          <t>-2,25; 1,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-89,27; 435,45</t>
+          <t>-100,0; 349,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-91,76; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,35</t>
+          <t>-2,77</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-73,81%</t>
+          <t>-81,85%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,03; -1,12</t>
+          <t>-4,24; -1,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 1,21</t>
+          <t>-3,81; 1,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-90,57; -38,68</t>
+          <t>-94,13; -57,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-81,12; 84,64</t>
+          <t>-80,41; 113,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-7,92</t>
+          <t>-6,83</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-78,16%</t>
+          <t>-74,46%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,82; -5,45</t>
+          <t>-9,49; -4,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 0,32</t>
+          <t>-5,77; 0,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-87,33; -63,02</t>
+          <t>-85,3; -56,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-60,27; 8,63</t>
+          <t>-59,54; 16,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-8,8</t>
+          <t>-9,03</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-51,24%</t>
+          <t>-50,5%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-12,74; -5,22</t>
+          <t>-13,2; -5,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,92; -5,33</t>
+          <t>-16,43; -5,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-64,92; -34,35</t>
+          <t>-63,79; -31,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-92,16; -42,01</t>
+          <t>-93,37; -42,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-6,96</t>
+          <t>-7,39</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-24,33%</t>
+          <t>-25,45%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-12,49; -2,11</t>
+          <t>-12,45; -2,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 3,32</t>
+          <t>-10,39; 3,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-38,57; -7,82</t>
+          <t>-39,03; -11,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-35,29; 17,61</t>
+          <t>-35,16; 19,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-3,39</t>
+          <t>-3,02</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-36,85%</t>
+          <t>-35,14%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1202,12 +1202,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,67; -2,11</t>
+          <t>-4,15; -1,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 1,38</t>
+          <t>-2,64; 0,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-46,44; -24,54</t>
+          <t>-44,81; -23,69</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-39,87; 31,34</t>
+          <t>-43,05; 18,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">

--- a/data/trans_bre/CONS_COR-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_COR-Edad-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,19 +604,19 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1,4</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,12</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,45</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
@@ -624,12 +624,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 7,87</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>0,0; 0,63</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 8,54</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -684,17 +684,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,69</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,4</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,23</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,79</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,4</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,0; 2,15</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,52</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>0,0; 1,33</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,08</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,29</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>-0,05</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,28</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,29</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-5,98%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>702,54%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>-6,26%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-22,72%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>702,54%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-1,67; 1,18</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,28; 3,23</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-1,24; 1,09</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,25; 1,05</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,28; 3,23</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>-100,0; 349,75</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-2,35</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-0,45</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>-2,77</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,18</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,45</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>-61,45%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-27,41%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>-81,85%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-47,5%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-27,41%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-4,92; -0,55</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-1,86; 1,35</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>-4,24; -1,57</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,81; 1,08</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,86; 1,35</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-85,49; -14,44</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-84,33; 167,22</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>-94,13; -57,13</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-80,41; 113,71</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-84,33; 167,22</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-2,35</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-3,95</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>-6,83</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-2,52</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-3,95</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>-31,56%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-50,61%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>-74,46%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-33,15%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-50,61%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>-5,55; 0,8</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-7,49; -0,51</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>-9,49; -4,45</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-5,77; 0,78</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-7,49; -0,51</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-58,42; 16,08</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-74,86; -4,11</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>-85,3; -56,62</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-59,54; 16,36</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-74,86; -4,11</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-5,73</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-6,21</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>-9,03</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-9,95</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-6,21</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>-43,07%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>-41,42%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>-50,5%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-71,73%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-41,42%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-10,34; -1,66</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-10,46; -1,95</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>-13,2; -5,09</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-16,43; -5,53</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-10,46; -1,95</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-62,23; -14,06</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-58,7; -14,63</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>-63,79; -31,8</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-93,37; -42,67</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-58,7; -14,63</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-3,32</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-0,15</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>-7,39</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-2,83</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,15</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>-13,13%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-0,58%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>-25,45%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-11,67%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-0,58%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-10,88; 3,42</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-5,3; 5,25</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>-12,45; -2,94</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-10,39; 3,88</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-5,3; 5,25</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>-35,34; 17,46</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-18,87; 23,38</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>-39,03; -11,44</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-35,16; 19,57</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-18,87; 23,38</t>
         </is>
       </c>
     </row>
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-0,82</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-0,43</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>-3,02</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-0,9</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-0,43</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>-14,12%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-7,07%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>-35,14%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-17,1%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>-7,07%</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>-2,11; 0,39</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>-1,63; 0,64</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>-4,15; -1,98</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-2,64; 0,9</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-1,63; 0,64</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>-31,22; 8,28</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>-24,65; 11,02</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>-44,81; -23,69</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>-43,05; 18,96</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>-24,65; 11,02</t>
         </is>
       </c>
     </row>
